--- a/similarities/split_global/harmonic_similarity_timestamps_388.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_388.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.336043', '0:00:26.115071'), ('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:24.180000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=134.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
+          <t>('0:01:36.749660', '0:01:51.796190')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:01.420000', '0:01:14.480000')]</t>
+          <t>('0:01:45', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=2.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=96.74966</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=61.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_77</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['F#', 'B', 'E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:15.530000', '0:00:16.900000')]</t>
+          <t>('0:03:28.740000', '0:03:31.740000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:00:21.840737', '0:00:25.474660')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=208.74</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-77#t=21.840737</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#', 'A#/F', 'F:7', 'A#']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:03:49.260000', '0:04:01.060000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:04:29.700000', '0:04:38.420000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=229.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:02.080000', '0:01:09.840000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:41.320000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=62.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['D#:7', 'G#:maj', 'C#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['B:7', 'E', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:35.860000', '0:00:39.460000')]</t>
+          <t>('0:00:53.540000', '0:01:03.080000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:38.620000')]</t>
+          <t>('0:00:32.367960', '0:00:41.621112')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=53.54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=32.36796</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['G', 'C:min', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C', 'F:min', 'C#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000')]</t>
+          <t>('0:00:54.639000', '0:00:59.554000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:13.260000')]</t>
+          <t>('0:00:09.380000', '0:00:21.820000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=54.639</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=9.38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>isophonics_229</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['A:maj/9', 'B', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:43.926916')]</t>
+          <t>('0:00:22.599387', '0:00:29.576984')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
+          <t>('0:01:03.861000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-229#t=22.599387</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>jaah_87</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_180</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['F:min', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:04:05.350000', '0:04:12.790000')]</t>
+          <t>('0:00:01.260000', '0:00:08.220000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:17.060000', '0:00:42.800000')]</t>
+          <t>('0:00:00.600000', '0:00:08.740000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=245.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=17.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['C:min', 'F:min', 'C:min/5']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:11.200000', '0:00:22.160000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:01:24.323000', '0:01:27.713000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=11.2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_26</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_33</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:maj7']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Db:min7', 'Gb:7', 'Cb:maj7']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:28.950000', '0:00:32.300000')]</t>
+          <t>('0:00:10.780000', '0:00:16.280000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:02.190000', '0:00:05.120000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=28.95']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-33#t=2.19']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:21.620000')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:16.360000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:7', 'A#:min', 'A:dim7/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:43.960000', '0:00:47.420000'), ('0:01:07.160000', '0:01:12.400000')]</t>
+          <t>('0:00:19.380000', '0:00:25.360000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:37.640000', '0:01:51'), ('0:01:47.260000', '0:02:02.720000')]</t>
+          <t>('0:01:21.340000', '0:01:32.140000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=19.38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=97.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=107.26']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=81.34</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:18.120000', '0:00:24.540000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:15.027029', '0:00:22.457415')]</t>
+          <t>('0:00:05.915850', '0:00:14.867142')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=15.027029']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:10.220000', '0:00:26.460000')]</t>
+          <t>('0:00:19.980000', '0:00:27.180000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.500000', '0:00:07.720000')]</t>
+          <t>('0:00:36.660000', '0:00:43.940000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=10.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
